--- a/Final_results/BDF_noText_2020.xlsx
+++ b/Final_results/BDF_noText_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -855,7 +855,13 @@
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">+16.0 (75)</t>
+  </si>
+  <si>
     <t xml:space="preserve">+16.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+16.0 (70)</t>
   </si>
   <si>
     <t xml:space="preserve">+16.0 (60)</t>
@@ -888,7 +894,7 @@
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
-    <t xml:space="preserve">+18.0 (85)</t>
+    <t xml:space="preserve">+16 (90)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-11-08</t>
@@ -900,20 +906,24 @@
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.1 (65)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-4.0 (60)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (40)</t>
-  </si>
-  <si>
     <t xml:space="preserve">
--4.2 (40)</t>
+-4.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.0 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.0 (55)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
@@ -925,7 +935,7 @@
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (75)</t>
+    <t xml:space="preserve">-4.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">-4.0 (80)</t>
@@ -941,9 +951,6 @@
   </si>
   <si>
     <t xml:space="preserve">-2.5 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -7851,64 +7858,64 @@
         <v>0.2</v>
       </c>
       <c r="M61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s">
+        <v>57</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s">
         <v>51</v>
       </c>
-      <c r="O61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P61" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="AA61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s">
         <v>51</v>
       </c>
-      <c r="R61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>70</v>
-      </c>
-      <c r="T61" t="s">
-        <v>80</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V61" t="n">
-        <v>70</v>
-      </c>
-      <c r="W61" t="s">
-        <v>80</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>57</v>
-      </c>
       <c r="AD61" t="n">
         <v>0.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -8510,7 +8517,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
         <v>213</v>
@@ -8519,7 +8526,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s">
         <v>213</v>
@@ -8528,7 +8535,7 @@
         <v>16</v>
       </c>
       <c r="J68" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s">
         <v>213</v>
@@ -8540,7 +8547,7 @@
         <v>65</v>
       </c>
       <c r="N68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O68" t="n">
         <v>16</v>
@@ -8549,25 +8556,25 @@
         <v>65</v>
       </c>
       <c r="Q68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R68" t="n">
         <v>16</v>
       </c>
       <c r="S68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U68" t="n">
         <v>16</v>
       </c>
       <c r="V68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
@@ -8576,7 +8583,7 @@
         <v>60</v>
       </c>
       <c r="Z68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AA68" t="n">
         <v>16</v>
@@ -8585,7 +8592,7 @@
         <v>60</v>
       </c>
       <c r="AC68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AD68" t="n">
         <v>16</v>
@@ -8594,15 +8601,15 @@
         <v>60</v>
       </c>
       <c r="AF68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C69" t="n">
         <v>16</v>
@@ -8611,7 +8618,7 @@
         <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F69" t="n">
         <v>16</v>
@@ -8620,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="H69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I69" t="n">
         <v>16</v>
@@ -8629,7 +8636,7 @@
         <v>80</v>
       </c>
       <c r="K69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L69" t="n">
         <v>16</v>
@@ -8638,7 +8645,7 @@
         <v>85</v>
       </c>
       <c r="N69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O69" t="n">
         <v>16</v>
@@ -8647,7 +8654,7 @@
         <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R69" t="n">
         <v>16</v>
@@ -8656,7 +8663,7 @@
         <v>85</v>
       </c>
       <c r="T69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U69" t="n">
         <v>16</v>
@@ -8665,7 +8672,7 @@
         <v>85</v>
       </c>
       <c r="W69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="X69" t="n">
         <v>16</v>
@@ -8674,7 +8681,7 @@
         <v>80</v>
       </c>
       <c r="Z69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AA69" t="n">
         <v>16</v>
@@ -8683,7 +8690,7 @@
         <v>80</v>
       </c>
       <c r="AC69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AD69" t="n">
         <v>16</v>
@@ -8692,15 +8699,15 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C70" t="n">
         <v>16</v>
@@ -8709,7 +8716,7 @@
         <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F70" t="n">
         <v>16</v>
@@ -8718,7 +8725,7 @@
         <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I70" t="n">
         <v>16</v>
@@ -8727,7 +8734,7 @@
         <v>90</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L70" t="n">
         <v>16</v>
@@ -8736,7 +8743,7 @@
         <v>90</v>
       </c>
       <c r="N70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O70" t="n">
         <v>16</v>
@@ -8745,256 +8752,256 @@
         <v>90</v>
       </c>
       <c r="Q70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
       </c>
       <c r="S70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T70" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
       </c>
       <c r="V70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W70" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="X70" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA70" t="n">
         <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AD70" t="n">
         <v>16</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C71" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>65</v>
+      </c>
+      <c r="E71" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>65</v>
+      </c>
+      <c r="H71" t="s">
+        <v>227</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>65</v>
+      </c>
+      <c r="K71" t="s">
+        <v>227</v>
+      </c>
+      <c r="L71" t="n">
         <v>-4</v>
       </c>
-      <c r="D71" t="n">
+      <c r="M71" t="n">
         <v>60</v>
       </c>
-      <c r="E71" t="s">
-        <v>225</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="N71" t="s">
+        <v>228</v>
+      </c>
+      <c r="O71" t="n">
         <v>-4</v>
       </c>
-      <c r="G71" t="n">
+      <c r="P71" t="n">
         <v>60</v>
       </c>
-      <c r="H71" t="s">
-        <v>225</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>60</v>
-      </c>
-      <c r="K71" t="s">
-        <v>225</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-6</v>
-      </c>
-      <c r="M71" t="n">
-        <v>40</v>
-      </c>
-      <c r="N71" t="s">
-        <v>226</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-6</v>
-      </c>
-      <c r="P71" t="n">
-        <v>40</v>
-      </c>
       <c r="Q71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R71" t="n">
         <v>-4</v>
       </c>
       <c r="S71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="U71" t="n">
         <v>-4</v>
       </c>
       <c r="V71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="X71" t="n">
-        <v>-4.2</v>
+        <v>-6</v>
       </c>
       <c r="Y71" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Z71" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AA71" t="n">
-        <v>-4.2</v>
+        <v>-6</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC71" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AD71" t="n">
-        <v>-4.2</v>
+        <v>-6</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C72" t="n">
         <v>-4</v>
       </c>
       <c r="D72" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F72" t="n">
         <v>-4</v>
       </c>
       <c r="G72" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I72" t="n">
         <v>-4</v>
       </c>
       <c r="J72" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L72" t="n">
         <v>-4</v>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O72" t="n">
         <v>-4</v>
       </c>
       <c r="P72" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R72" t="n">
         <v>-4</v>
       </c>
       <c r="S72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T72" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="U72" t="n">
         <v>-4</v>
       </c>
       <c r="V72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W72" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="X72" t="n">
         <v>-4</v>
       </c>
       <c r="Y72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA72" t="n">
         <v>-4</v>
       </c>
       <c r="AB72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AC72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AD72" t="n">
         <v>-4</v>
       </c>
       <c r="AE72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C73" t="n">
         <v>-2.5</v>
@@ -9003,7 +9010,7 @@
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F73" t="n">
         <v>-2.5</v>
@@ -9012,7 +9019,7 @@
         <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I73" t="n">
         <v>-2.5</v>
@@ -9021,7 +9028,7 @@
         <v>75</v>
       </c>
       <c r="K73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9030,7 +9037,7 @@
         <v>80</v>
       </c>
       <c r="N73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9039,7 +9046,7 @@
         <v>80</v>
       </c>
       <c r="Q73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9048,7 +9055,7 @@
         <v>85</v>
       </c>
       <c r="T73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9057,7 +9064,7 @@
         <v>85</v>
       </c>
       <c r="W73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9066,7 +9073,7 @@
         <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9075,7 +9082,7 @@
         <v>85</v>
       </c>
       <c r="AC73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9084,15 +9091,15 @@
         <v>85</v>
       </c>
       <c r="AF73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -9101,7 +9108,7 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -9110,7 +9117,7 @@
         <v>55</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -9119,7 +9126,7 @@
         <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L74" t="n">
         <v>0.1</v>
@@ -9164,7 +9171,7 @@
         <v>65</v>
       </c>
       <c r="Z74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA74" t="n">
         <v>-0.2</v>
@@ -9173,7 +9180,7 @@
         <v>65</v>
       </c>
       <c r="AC74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD74" t="n">
         <v>-0.2</v>
@@ -9182,15 +9189,15 @@
         <v>65</v>
       </c>
       <c r="AF74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C75" t="n">
         <v>-0.1</v>
@@ -9199,7 +9206,7 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F75" t="n">
         <v>-0.1</v>
@@ -9208,7 +9215,7 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I75" t="n">
         <v>-0.1</v>
@@ -9217,7 +9224,7 @@
         <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L75" t="n">
         <v>0.1</v>
@@ -9285,10 +9292,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C76" t="n">
         <v>0.3</v>
@@ -9383,10 +9390,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C77" t="n">
         <v>1.5</v>
@@ -9395,7 +9402,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F77" t="n">
         <v>1.5</v>
@@ -9404,7 +9411,7 @@
         <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I77" t="n">
         <v>1.5</v>
@@ -9413,7 +9420,7 @@
         <v>80</v>
       </c>
       <c r="K77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L77" t="n">
         <v>0.5</v>
@@ -9422,7 +9429,7 @@
         <v>75</v>
       </c>
       <c r="N77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O77" t="n">
         <v>0.5</v>
@@ -9431,7 +9438,7 @@
         <v>75</v>
       </c>
       <c r="Q77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R77" t="n">
         <v>0.5</v>
@@ -9440,7 +9447,7 @@
         <v>65</v>
       </c>
       <c r="T77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U77" t="n">
         <v>0.5</v>
@@ -9449,7 +9456,7 @@
         <v>65</v>
       </c>
       <c r="W77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X77" t="n">
         <v>0.3</v>
@@ -9481,10 +9488,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C78" t="n">
         <v>0.7</v>
@@ -9493,7 +9500,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F78" t="n">
         <v>0.7</v>
@@ -9502,7 +9509,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I78" t="n">
         <v>0.7</v>
@@ -9511,7 +9518,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L78" t="n">
         <v>1.5</v>
@@ -9520,7 +9527,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O78" t="n">
         <v>1.5</v>
@@ -9529,7 +9536,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9538,7 +9545,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9547,7 +9554,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X78" t="n">
         <v>0.8</v>
@@ -9556,7 +9563,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA78" t="n">
         <v>0.8</v>
@@ -9565,7 +9572,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9574,15 +9581,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9591,7 +9598,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9600,7 +9607,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9609,7 +9616,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L79" t="n">
         <v>0.9</v>
@@ -9618,7 +9625,7 @@
         <v>90</v>
       </c>
       <c r="N79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O79" t="n">
         <v>0.9</v>
@@ -9627,7 +9634,7 @@
         <v>90</v>
       </c>
       <c r="Q79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R79" t="n">
         <v>1</v>
@@ -9636,7 +9643,7 @@
         <v>90</v>
       </c>
       <c r="T79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U79" t="n">
         <v>1</v>
@@ -9645,7 +9652,7 @@
         <v>90</v>
       </c>
       <c r="W79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X79" t="n">
         <v>1</v>
@@ -9654,7 +9661,7 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA79" t="n">
         <v>1</v>
@@ -9663,7 +9670,7 @@
         <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -9672,15 +9679,15 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C80" t="n">
         <v>2.5</v>
@@ -9689,7 +9696,7 @@
         <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F80" t="n">
         <v>2.5</v>
@@ -9698,7 +9705,7 @@
         <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I80" t="n">
         <v>2.5</v>
@@ -9707,7 +9714,7 @@
         <v>75</v>
       </c>
       <c r="K80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L80" t="n">
         <v>2.9</v>
@@ -9716,7 +9723,7 @@
         <v>75</v>
       </c>
       <c r="N80" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O80" t="n">
         <v>2.9</v>
@@ -9725,7 +9732,7 @@
         <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R80" t="n">
         <v>2.5</v>
@@ -9734,7 +9741,7 @@
         <v>75</v>
       </c>
       <c r="T80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="U80" t="n">
         <v>2.5</v>
@@ -9743,7 +9750,7 @@
         <v>75</v>
       </c>
       <c r="W80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X80" t="n">
         <v>3.2</v>
@@ -9752,7 +9759,7 @@
         <v>75</v>
       </c>
       <c r="Z80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA80" t="n">
         <v>3.2</v>
@@ -9761,7 +9768,7 @@
         <v>75</v>
       </c>
       <c r="AC80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AD80" t="n">
         <v>2.5</v>
@@ -9770,15 +9777,15 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C81" t="n">
         <v>2.3</v>
@@ -9787,7 +9794,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F81" t="n">
         <v>2.3</v>
@@ -9796,7 +9803,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -9805,7 +9812,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L81" t="n">
         <v>2.5</v>
@@ -9814,7 +9821,7 @@
         <v>85</v>
       </c>
       <c r="N81" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O81" t="n">
         <v>2.5</v>
@@ -9823,7 +9830,7 @@
         <v>85</v>
       </c>
       <c r="Q81" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9832,7 +9839,7 @@
         <v>85</v>
       </c>
       <c r="T81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9841,7 +9848,7 @@
         <v>85</v>
       </c>
       <c r="W81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9850,7 +9857,7 @@
         <v>90</v>
       </c>
       <c r="Z81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9859,7 +9866,7 @@
         <v>90</v>
       </c>
       <c r="AC81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9868,15 +9875,15 @@
         <v>90</v>
       </c>
       <c r="AF81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C82" t="n">
         <v>2.5</v>
@@ -9885,7 +9892,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F82" t="n">
         <v>2.5</v>
@@ -9894,7 +9901,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I82" t="n">
         <v>2.5</v>
@@ -9903,7 +9910,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L82" t="n">
         <v>2.5</v>
@@ -9912,7 +9919,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O82" t="n">
         <v>2.5</v>
@@ -9921,7 +9928,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R82" t="n">
         <v>2.5</v>
@@ -9930,7 +9937,7 @@
         <v>90</v>
       </c>
       <c r="T82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U82" t="n">
         <v>2.3</v>
@@ -9939,7 +9946,7 @@
         <v>90</v>
       </c>
       <c r="W82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X82" t="n">
         <v>2.3</v>
@@ -9948,7 +9955,7 @@
         <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA82" t="n">
         <v>2.3</v>
@@ -9957,7 +9964,7 @@
         <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD82" t="n">
         <v>2.3</v>
@@ -9966,15 +9973,15 @@
         <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C83" t="n">
         <v>0.8</v>
@@ -9983,7 +9990,7 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F83" t="n">
         <v>0.8</v>
@@ -9992,7 +9999,7 @@
         <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I83" t="n">
         <v>0.8</v>
@@ -10001,7 +10008,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L83" t="n">
         <v>0.6</v>
@@ -10010,7 +10017,7 @@
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O83" t="n">
         <v>0.6</v>
@@ -10019,7 +10026,7 @@
         <v>80</v>
       </c>
       <c r="Q83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R83" t="n">
         <v>0.7</v>
@@ -10028,7 +10035,7 @@
         <v>75</v>
       </c>
       <c r="T83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -10037,7 +10044,7 @@
         <v>75</v>
       </c>
       <c r="W83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="X83" t="n">
         <v>0.5</v>
@@ -10046,7 +10053,7 @@
         <v>75</v>
       </c>
       <c r="Z83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA83" t="n">
         <v>0.5</v>
@@ -10055,7 +10062,7 @@
         <v>75</v>
       </c>
       <c r="AC83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AD83" t="n">
         <v>0.5</v>
@@ -10064,15 +10071,15 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C84" t="n">
         <v>0.75</v>
@@ -10081,7 +10088,7 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F84" t="n">
         <v>0.75</v>
@@ -10090,7 +10097,7 @@
         <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I84" t="n">
         <v>0.75</v>
@@ -10099,7 +10106,7 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L84" t="n">
         <v>0.8</v>
@@ -10108,7 +10115,7 @@
         <v>80</v>
       </c>
       <c r="N84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O84" t="n">
         <v>0.8</v>
@@ -10117,7 +10124,7 @@
         <v>80</v>
       </c>
       <c r="Q84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R84" t="n">
         <v>0.75</v>
@@ -10126,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="T84" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="U84" t="n">
         <v>0.75</v>
@@ -10135,7 +10142,7 @@
         <v>80</v>
       </c>
       <c r="W84" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="X84" t="n">
         <v>0.8</v>
@@ -10144,7 +10151,7 @@
         <v>85</v>
       </c>
       <c r="Z84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA84" t="n">
         <v>0.8</v>
@@ -10153,7 +10160,7 @@
         <v>85</v>
       </c>
       <c r="AC84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AD84" t="n">
         <v>0.8</v>
@@ -10162,15 +10169,15 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C85" t="n">
         <v>0.6</v>
@@ -10179,7 +10186,7 @@
         <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F85" t="n">
         <v>0.6</v>
@@ -10188,7 +10195,7 @@
         <v>80</v>
       </c>
       <c r="H85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I85" t="n">
         <v>0.6</v>
@@ -10197,7 +10204,7 @@
         <v>80</v>
       </c>
       <c r="K85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L85" t="n">
         <v>0.5</v>
@@ -10224,7 +10231,7 @@
         <v>80</v>
       </c>
       <c r="T85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U85" t="n">
         <v>0.6</v>
@@ -10233,7 +10240,7 @@
         <v>80</v>
       </c>
       <c r="W85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="X85" t="n">
         <v>0.6</v>
@@ -10265,10 +10272,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C86" t="n">
         <v>0.3</v>
@@ -10363,10 +10370,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C87" t="n">
         <v>0.5</v>
@@ -10375,7 +10382,7 @@
         <v>50</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F87" t="n">
         <v>0.5</v>
@@ -10384,7 +10391,7 @@
         <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I87" t="n">
         <v>0.5</v>
@@ -10393,7 +10400,7 @@
         <v>50</v>
       </c>
       <c r="K87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L87" t="n">
         <v>0.5</v>
@@ -10402,7 +10409,7 @@
         <v>60</v>
       </c>
       <c r="N87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O87" t="n">
         <v>0.5</v>
@@ -10411,7 +10418,7 @@
         <v>60</v>
       </c>
       <c r="Q87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R87" t="n">
         <v>0.3</v>
@@ -10420,7 +10427,7 @@
         <v>40</v>
       </c>
       <c r="T87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10429,7 +10436,7 @@
         <v>40</v>
       </c>
       <c r="W87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
@@ -10438,7 +10445,7 @@
         <v>40</v>
       </c>
       <c r="Z87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10447,7 +10454,7 @@
         <v>40</v>
       </c>
       <c r="AC87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10456,15 +10463,15 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C88" t="n">
         <v>0.3</v>
@@ -10518,7 +10525,7 @@
         <v>60</v>
       </c>
       <c r="T88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U88" t="n">
         <v>0.3</v>
@@ -10527,7 +10534,7 @@
         <v>60</v>
       </c>
       <c r="W88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X88" t="n">
         <v>0.3</v>
@@ -10559,10 +10566,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10598,7 +10605,7 @@
         <v>55</v>
       </c>
       <c r="N89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O89" t="n">
         <v>0.2</v>
@@ -10607,7 +10614,7 @@
         <v>55</v>
       </c>
       <c r="Q89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R89" t="n">
         <v>0.3</v>
@@ -10616,7 +10623,7 @@
         <v>45</v>
       </c>
       <c r="T89" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U89" t="n">
         <v>0.2</v>
@@ -10625,7 +10632,7 @@
         <v>45</v>
       </c>
       <c r="W89" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="X89" t="n">
         <v>0.3</v>
@@ -10634,7 +10641,7 @@
         <v>50</v>
       </c>
       <c r="Z89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AA89" t="n">
         <v>0.3</v>
@@ -10643,7 +10650,7 @@
         <v>50</v>
       </c>
       <c r="AC89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AD89" t="n">
         <v>0.3</v>
@@ -10652,15 +10659,15 @@
         <v>50</v>
       </c>
       <c r="AF89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C90" t="n">
         <v>0.3</v>
@@ -10669,7 +10676,7 @@
         <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F90" t="n">
         <v>0.3</v>
@@ -10678,7 +10685,7 @@
         <v>60</v>
       </c>
       <c r="H90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I90" t="n">
         <v>0.3</v>
@@ -10687,7 +10694,7 @@
         <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L90" t="n">
         <v>0.3</v>
@@ -10714,7 +10721,7 @@
         <v>60</v>
       </c>
       <c r="T90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U90" t="n">
         <v>0.3</v>
@@ -10723,7 +10730,7 @@
         <v>60</v>
       </c>
       <c r="W90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X90" t="n">
         <v>0.25</v>
@@ -10732,7 +10739,7 @@
         <v>60</v>
       </c>
       <c r="Z90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AA90" t="n">
         <v>0.25</v>
@@ -10741,7 +10748,7 @@
         <v>60</v>
       </c>
       <c r="AC90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AD90" t="n">
         <v>0.25</v>
@@ -10750,15 +10757,15 @@
         <v>60</v>
       </c>
       <c r="AF90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10794,7 +10801,7 @@
         <v>60</v>
       </c>
       <c r="N91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O91" t="n">
         <v>0.3</v>
@@ -10803,7 +10810,7 @@
         <v>60</v>
       </c>
       <c r="Q91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R91" t="n">
         <v>0.3</v>
@@ -10853,10 +10860,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C92" t="n">
         <v>0.3</v>
@@ -10892,7 +10899,7 @@
         <v>55</v>
       </c>
       <c r="N92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O92" t="n">
         <v>0.3</v>
@@ -10901,7 +10908,7 @@
         <v>55</v>
       </c>
       <c r="Q92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R92" t="n">
         <v>0.2</v>
@@ -10910,7 +10917,7 @@
         <v>40</v>
       </c>
       <c r="T92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="U92" t="n">
         <v>0.2</v>
@@ -10919,7 +10926,7 @@
         <v>40</v>
       </c>
       <c r="W92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="X92" t="n">
         <v>0.25</v>
@@ -10928,7 +10935,7 @@
         <v>55</v>
       </c>
       <c r="Z92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AA92" t="n">
         <v>0.25</v>
@@ -10937,7 +10944,7 @@
         <v>55</v>
       </c>
       <c r="AC92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AD92" t="n">
         <v>0.25</v>
@@ -10946,15 +10953,15 @@
         <v>55</v>
       </c>
       <c r="AF92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -11008,7 +11015,7 @@
         <v>60</v>
       </c>
       <c r="T93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U93" t="n">
         <v>0.3</v>
@@ -11017,7 +11024,7 @@
         <v>60</v>
       </c>
       <c r="W93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X93" t="n">
         <v>0.2</v>
@@ -11026,7 +11033,7 @@
         <v>50</v>
       </c>
       <c r="Z93" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AA93" t="n">
         <v>0.3</v>
@@ -11035,7 +11042,7 @@
         <v>60</v>
       </c>
       <c r="AC93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD93" t="n">
         <v>0.3</v>
@@ -11044,15 +11051,15 @@
         <v>60</v>
       </c>
       <c r="AF93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C94" t="n">
         <v>0.3</v>
@@ -11147,10 +11154,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
@@ -11204,7 +11211,7 @@
         <v>60</v>
       </c>
       <c r="T95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -11213,7 +11220,7 @@
         <v>60</v>
       </c>
       <c r="W95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
@@ -11245,10 +11252,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C96" t="n">
         <v>0.1</v>
@@ -11257,7 +11264,7 @@
         <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
@@ -11266,7 +11273,7 @@
         <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I96" t="n">
         <v>0.1</v>
@@ -11275,7 +11282,7 @@
         <v>70</v>
       </c>
       <c r="K96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L96" t="n">
         <v>0.1</v>
@@ -11302,7 +11309,7 @@
         <v>70</v>
       </c>
       <c r="T96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U96" t="n">
         <v>0.1</v>
@@ -11311,7 +11318,7 @@
         <v>70</v>
       </c>
       <c r="W96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X96" t="n">
         <v>0.1</v>
@@ -11343,10 +11350,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C97" t="n">
         <v>0.1</v>
@@ -11355,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
@@ -11364,7 +11371,7 @@
         <v>80</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I97" t="n">
         <v>0.1</v>
@@ -11373,7 +11380,7 @@
         <v>80</v>
       </c>
       <c r="K97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L97" t="n">
         <v>0.1</v>
@@ -11382,7 +11389,7 @@
         <v>80</v>
       </c>
       <c r="N97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O97" t="n">
         <v>0.1</v>
@@ -11391,7 +11398,7 @@
         <v>80</v>
       </c>
       <c r="Q97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R97" t="n">
         <v>0.1</v>
@@ -11418,7 +11425,7 @@
         <v>80</v>
       </c>
       <c r="Z97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA97" t="n">
         <v>0.1</v>
@@ -11427,7 +11434,7 @@
         <v>80</v>
       </c>
       <c r="AC97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
@@ -11436,15 +11443,15 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11453,7 +11460,7 @@
         <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
@@ -11462,7 +11469,7 @@
         <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I98" t="n">
         <v>0.1</v>
@@ -11471,7 +11478,7 @@
         <v>70</v>
       </c>
       <c r="K98" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L98" t="n">
         <v>0.1</v>
@@ -11539,10 +11546,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C99" t="n">
         <v>0.1</v>
@@ -11551,7 +11558,7 @@
         <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F99" t="n">
         <v>0.1</v>
@@ -11560,7 +11567,7 @@
         <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I99" t="n">
         <v>0.1</v>
@@ -11569,7 +11576,7 @@
         <v>70</v>
       </c>
       <c r="K99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L99" t="n">
         <v>0.1</v>
@@ -11578,7 +11585,7 @@
         <v>75</v>
       </c>
       <c r="N99" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O99" t="n">
         <v>0.1</v>
@@ -11587,7 +11594,7 @@
         <v>75</v>
       </c>
       <c r="Q99" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R99" t="n">
         <v>0.1</v>
@@ -11596,7 +11603,7 @@
         <v>70</v>
       </c>
       <c r="T99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U99" t="n">
         <v>0.1</v>
@@ -11605,7 +11612,7 @@
         <v>70</v>
       </c>
       <c r="W99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X99" t="n">
         <v>0.1</v>
@@ -11614,7 +11621,7 @@
         <v>70</v>
       </c>
       <c r="Z99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA99" t="n">
         <v>0.1</v>
@@ -11623,7 +11630,7 @@
         <v>70</v>
       </c>
       <c r="AC99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD99" t="n">
         <v>0.1</v>
@@ -11632,52 +11639,52 @@
         <v>70</v>
       </c>
       <c r="AF99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>80</v>
+      </c>
+      <c r="E100" t="s">
+        <v>327</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>327</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s">
+        <v>327</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>75</v>
+      </c>
+      <c r="N100" t="s">
         <v>332</v>
       </c>
-      <c r="C100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>80</v>
-      </c>
-      <c r="E100" t="s">
-        <v>325</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>80</v>
-      </c>
-      <c r="H100" t="s">
-        <v>325</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>80</v>
-      </c>
-      <c r="K100" t="s">
-        <v>325</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M100" t="n">
-        <v>75</v>
-      </c>
-      <c r="N100" t="s">
-        <v>330</v>
-      </c>
       <c r="O100" t="n">
         <v>0.1</v>
       </c>
@@ -11685,7 +11692,7 @@
         <v>75</v>
       </c>
       <c r="Q100" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R100" t="n">
         <v>0.1</v>
@@ -11694,7 +11701,7 @@
         <v>80</v>
       </c>
       <c r="T100" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
@@ -11703,7 +11710,7 @@
         <v>80</v>
       </c>
       <c r="W100" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X100" t="n">
         <v>0.1</v>
@@ -11735,10 +11742,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11747,7 +11754,7 @@
         <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
@@ -11756,7 +11763,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I101" t="n">
         <v>0.1</v>
@@ -11765,7 +11772,7 @@
         <v>75</v>
       </c>
       <c r="K101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L101" t="n">
         <v>0.1</v>
@@ -11774,7 +11781,7 @@
         <v>70</v>
       </c>
       <c r="N101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O101" t="n">
         <v>0.1</v>
@@ -11783,7 +11790,7 @@
         <v>70</v>
       </c>
       <c r="Q101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
@@ -11792,7 +11799,7 @@
         <v>70</v>
       </c>
       <c r="T101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U101" t="n">
         <v>0.1</v>
@@ -11801,7 +11808,7 @@
         <v>70</v>
       </c>
       <c r="W101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X101" t="n">
         <v>0.1</v>
@@ -11810,7 +11817,7 @@
         <v>70</v>
       </c>
       <c r="Z101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1</v>
@@ -11819,7 +11826,7 @@
         <v>70</v>
       </c>
       <c r="AC101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1</v>
@@ -11828,15 +11835,15 @@
         <v>70</v>
       </c>
       <c r="AF101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11845,7 +11852,7 @@
         <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F102" t="n">
         <v>0.1</v>
@@ -11854,7 +11861,7 @@
         <v>80</v>
       </c>
       <c r="H102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I102" t="n">
         <v>0.1</v>
@@ -11863,7 +11870,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L102" t="n">
         <v>0.1</v>
@@ -11872,7 +11879,7 @@
         <v>80</v>
       </c>
       <c r="N102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O102" t="n">
         <v>0.1</v>
@@ -11881,7 +11888,7 @@
         <v>80</v>
       </c>
       <c r="Q102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R102" t="n">
         <v>0.1</v>
@@ -11890,7 +11897,7 @@
         <v>80</v>
       </c>
       <c r="T102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U102" t="n">
         <v>0.1</v>
@@ -11899,7 +11906,7 @@
         <v>80</v>
       </c>
       <c r="W102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X102" t="n">
         <v>0.1</v>
@@ -11908,7 +11915,7 @@
         <v>75</v>
       </c>
       <c r="Z102" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1</v>
@@ -11917,7 +11924,7 @@
         <v>75</v>
       </c>
       <c r="AC102" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AD102" t="n">
         <v>0.1</v>
@@ -11926,15 +11933,15 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11943,7 +11950,7 @@
         <v>85</v>
       </c>
       <c r="E103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -11952,7 +11959,7 @@
         <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -11961,7 +11968,7 @@
         <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -11970,7 +11977,7 @@
         <v>80</v>
       </c>
       <c r="N103" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O103" t="n">
         <v>0.1</v>
@@ -11979,7 +11986,7 @@
         <v>80</v>
       </c>
       <c r="Q103" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R103" t="n">
         <v>0.1</v>
@@ -11988,7 +11995,7 @@
         <v>70</v>
       </c>
       <c r="T103" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U103" t="n">
         <v>0.1</v>
@@ -11997,7 +12004,7 @@
         <v>70</v>
       </c>
       <c r="W103" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X103" t="n">
         <v>0.1</v>
@@ -12006,7 +12013,7 @@
         <v>85</v>
       </c>
       <c r="Z103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -12015,7 +12022,7 @@
         <v>85</v>
       </c>
       <c r="AC103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -12024,15 +12031,15 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12086,7 +12093,7 @@
         <v>70</v>
       </c>
       <c r="T104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U104" t="n">
         <v>0.1</v>
@@ -12095,7 +12102,7 @@
         <v>70</v>
       </c>
       <c r="W104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X104" t="n">
         <v>0.1</v>
@@ -12127,10 +12134,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12139,7 +12146,7 @@
         <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -12148,7 +12155,7 @@
         <v>80</v>
       </c>
       <c r="H105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -12157,7 +12164,7 @@
         <v>80</v>
       </c>
       <c r="K105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12166,7 +12173,7 @@
         <v>75</v>
       </c>
       <c r="N105" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12175,7 +12182,7 @@
         <v>75</v>
       </c>
       <c r="Q105" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12184,7 +12191,7 @@
         <v>80</v>
       </c>
       <c r="T105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
@@ -12193,7 +12200,7 @@
         <v>80</v>
       </c>
       <c r="W105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
@@ -12202,7 +12209,7 @@
         <v>85</v>
       </c>
       <c r="Z105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
@@ -12211,7 +12218,7 @@
         <v>85</v>
       </c>
       <c r="AC105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
@@ -12220,15 +12227,15 @@
         <v>85</v>
       </c>
       <c r="AF105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12237,7 +12244,7 @@
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -12246,7 +12253,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -12255,7 +12262,7 @@
         <v>70</v>
       </c>
       <c r="K106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -12264,7 +12271,7 @@
         <v>80</v>
       </c>
       <c r="N106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -12273,7 +12280,7 @@
         <v>80</v>
       </c>
       <c r="Q106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -12282,7 +12289,7 @@
         <v>80</v>
       </c>
       <c r="T106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12291,7 +12298,7 @@
         <v>80</v>
       </c>
       <c r="W106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12300,7 +12307,7 @@
         <v>80</v>
       </c>
       <c r="Z106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12309,7 +12316,7 @@
         <v>80</v>
       </c>
       <c r="AC106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12318,15 +12325,15 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C107" t="n">
         <v>0.1</v>
@@ -12335,7 +12342,7 @@
         <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F107" t="n">
         <v>0.1</v>
@@ -12344,7 +12351,7 @@
         <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I107" t="n">
         <v>0.1</v>
@@ -12353,7 +12360,7 @@
         <v>70</v>
       </c>
       <c r="K107" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L107" t="n">
         <v>0.1</v>
@@ -12421,10 +12428,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C108" t="n">
         <v>0.1</v>
@@ -12433,7 +12440,7 @@
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F108" t="n">
         <v>0.1</v>
@@ -12442,7 +12449,7 @@
         <v>75</v>
       </c>
       <c r="H108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I108" t="n">
         <v>0.1</v>
@@ -12451,7 +12458,7 @@
         <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L108" t="n">
         <v>0.1</v>
@@ -12460,7 +12467,7 @@
         <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O108" t="n">
         <v>0.1</v>
@@ -12469,7 +12476,7 @@
         <v>75</v>
       </c>
       <c r="Q108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R108" t="n">
         <v>0.1</v>
@@ -12478,7 +12485,7 @@
         <v>80</v>
       </c>
       <c r="T108" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U108" t="n">
         <v>0.1</v>
@@ -12487,7 +12494,7 @@
         <v>80</v>
       </c>
       <c r="W108" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X108" t="n">
         <v>0.1</v>
@@ -12496,7 +12503,7 @@
         <v>70</v>
       </c>
       <c r="Z108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA108" t="n">
         <v>0.1</v>
@@ -12505,7 +12512,7 @@
         <v>70</v>
       </c>
       <c r="AC108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD108" t="n">
         <v>0.1</v>
@@ -12514,15 +12521,15 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C109" t="n">
         <v>0.1</v>
@@ -12531,7 +12538,7 @@
         <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F109" t="n">
         <v>0.1</v>
@@ -12540,7 +12547,7 @@
         <v>80</v>
       </c>
       <c r="H109" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I109" t="n">
         <v>0.1</v>
@@ -12549,7 +12556,7 @@
         <v>80</v>
       </c>
       <c r="K109" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L109" t="n">
         <v>0.1</v>
@@ -12558,7 +12565,7 @@
         <v>75</v>
       </c>
       <c r="N109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O109" t="n">
         <v>0.1</v>
@@ -12567,7 +12574,7 @@
         <v>75</v>
       </c>
       <c r="Q109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R109" t="n">
         <v>0.1</v>
@@ -12576,7 +12583,7 @@
         <v>90</v>
       </c>
       <c r="T109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="U109" t="n">
         <v>0.1</v>
@@ -12585,7 +12592,7 @@
         <v>90</v>
       </c>
       <c r="W109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="X109" t="n">
         <v>0.1</v>
@@ -12594,7 +12601,7 @@
         <v>85</v>
       </c>
       <c r="Z109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA109" t="n">
         <v>0.1</v>
@@ -12603,7 +12610,7 @@
         <v>85</v>
       </c>
       <c r="AC109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AD109" t="n">
         <v>0.1</v>
@@ -12612,15 +12619,15 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C110" t="n">
         <v>0.1</v>
@@ -12656,7 +12663,7 @@
         <v>70</v>
       </c>
       <c r="N110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O110" t="n">
         <v>0.1</v>
@@ -12665,7 +12672,7 @@
         <v>70</v>
       </c>
       <c r="Q110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R110" t="n">
         <v>0.2</v>
@@ -12715,10 +12722,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12813,10 +12820,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12911,10 +12918,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12923,7 +12930,7 @@
         <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F113" t="n">
         <v>0.1</v>
@@ -12932,7 +12939,7 @@
         <v>75</v>
       </c>
       <c r="H113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I113" t="n">
         <v>0.1</v>
@@ -12941,7 +12948,7 @@
         <v>75</v>
       </c>
       <c r="K113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L113" t="n">
         <v>0.2</v>
@@ -12968,7 +12975,7 @@
         <v>75</v>
       </c>
       <c r="T113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U113" t="n">
         <v>0.1</v>
@@ -12977,7 +12984,7 @@
         <v>75</v>
       </c>
       <c r="W113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="X113" t="n">
         <v>0.1</v>
@@ -12986,7 +12993,7 @@
         <v>75</v>
       </c>
       <c r="Z113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AA113" t="n">
         <v>0.1</v>
@@ -12995,7 +13002,7 @@
         <v>75</v>
       </c>
       <c r="AC113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AD113" t="n">
         <v>0.1</v>
@@ -13004,15 +13011,15 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -13107,10 +13114,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13119,7 +13126,7 @@
         <v>80</v>
       </c>
       <c r="E115" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
@@ -13128,7 +13135,7 @@
         <v>80</v>
       </c>
       <c r="H115" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
@@ -13137,7 +13144,7 @@
         <v>80</v>
       </c>
       <c r="K115" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L115" t="n">
         <v>0.2</v>
@@ -13205,10 +13212,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B116" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C116" t="n">
         <v>0.1</v>
@@ -13303,10 +13310,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C117" t="n">
         <v>0.1</v>
@@ -13315,7 +13322,7 @@
         <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F117" t="n">
         <v>0.1</v>
@@ -13324,7 +13331,7 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I117" t="n">
         <v>0.1</v>
@@ -13333,7 +13340,7 @@
         <v>75</v>
       </c>
       <c r="K117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -13342,7 +13349,7 @@
         <v>65</v>
       </c>
       <c r="N117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -13351,7 +13358,7 @@
         <v>65</v>
       </c>
       <c r="Q117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="R117" t="n">
         <v>0.1</v>
@@ -13360,7 +13367,7 @@
         <v>75</v>
       </c>
       <c r="T117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U117" t="n">
         <v>0.1</v>
@@ -13369,7 +13376,7 @@
         <v>75</v>
       </c>
       <c r="W117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="X117" t="n">
         <v>0.2</v>
@@ -13401,10 +13408,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C118" t="n">
         <v>0.2</v>
@@ -13440,7 +13447,7 @@
         <v>80</v>
       </c>
       <c r="N118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O118" t="n">
         <v>0.1</v>
@@ -13449,7 +13456,7 @@
         <v>80</v>
       </c>
       <c r="Q118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R118" t="n">
         <v>0.1</v>
@@ -13476,7 +13483,7 @@
         <v>80</v>
       </c>
       <c r="Z118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
@@ -13485,7 +13492,7 @@
         <v>80</v>
       </c>
       <c r="AC118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
@@ -13494,15 +13501,15 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C119" t="n">
         <v>0.1</v>
@@ -13511,7 +13518,7 @@
         <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F119" t="n">
         <v>0.1</v>
@@ -13520,7 +13527,7 @@
         <v>70</v>
       </c>
       <c r="H119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I119" t="n">
         <v>0.1</v>
@@ -13529,7 +13536,7 @@
         <v>70</v>
       </c>
       <c r="K119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L119" t="n">
         <v>0.1</v>
@@ -13556,7 +13563,7 @@
         <v>60</v>
       </c>
       <c r="T119" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="U119" t="n">
         <v>0.1</v>
@@ -13597,10 +13604,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C120" t="n">
         <v>0.2</v>
@@ -13636,7 +13643,7 @@
         <v>85</v>
       </c>
       <c r="N120" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O120" t="n">
         <v>0.1</v>
@@ -13645,7 +13652,7 @@
         <v>85</v>
       </c>
       <c r="Q120" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R120" t="n">
         <v>0.1</v>
@@ -13654,7 +13661,7 @@
         <v>85</v>
       </c>
       <c r="T120" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="U120" t="n">
         <v>0.1</v>
@@ -13663,7 +13670,7 @@
         <v>85</v>
       </c>
       <c r="W120" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X120" t="n">
         <v>0.1</v>
@@ -13672,7 +13679,7 @@
         <v>75</v>
       </c>
       <c r="Z120" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AA120" t="n">
         <v>0.1</v>
@@ -13681,7 +13688,7 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AD120" t="n">
         <v>0.1</v>
@@ -13690,15 +13697,15 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C121" t="n">
         <v>0.2</v>
@@ -13734,7 +13741,7 @@
         <v>85</v>
       </c>
       <c r="N121" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O121" t="n">
         <v>0.1</v>
@@ -13743,7 +13750,7 @@
         <v>85</v>
       </c>
       <c r="Q121" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R121" t="n">
         <v>0.1</v>
@@ -13752,7 +13759,7 @@
         <v>80</v>
       </c>
       <c r="T121" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U121" t="n">
         <v>0.1</v>
@@ -13761,7 +13768,7 @@
         <v>80</v>
       </c>
       <c r="W121" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X121" t="n">
         <v>0.1</v>
@@ -13770,7 +13777,7 @@
         <v>75</v>
       </c>
       <c r="Z121" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AA121" t="n">
         <v>0.1</v>
@@ -13779,7 +13786,7 @@
         <v>75</v>
       </c>
       <c r="AC121" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AD121" t="n">
         <v>0.1</v>
@@ -13788,15 +13795,15 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C122" t="n">
         <v>0.1</v>
@@ -13805,7 +13812,7 @@
         <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F122" t="n">
         <v>0.1</v>
@@ -13814,7 +13821,7 @@
         <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I122" t="n">
         <v>0.1</v>
@@ -13823,7 +13830,7 @@
         <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L122" t="n">
         <v>0.2</v>
@@ -13868,7 +13875,7 @@
         <v>80</v>
       </c>
       <c r="Z122" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA122" t="n">
         <v>0.1</v>
@@ -13877,7 +13884,7 @@
         <v>80</v>
       </c>
       <c r="AC122" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD122" t="n">
         <v>0.1</v>
@@ -13886,15 +13893,15 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -13989,10 +13996,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C124" t="n">
         <v>0.2</v>
@@ -14087,10 +14094,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -14185,10 +14192,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C126" t="n">
         <v>0.3</v>
@@ -14283,10 +14290,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C127" t="n">
         <v>0.2</v>
@@ -14381,10 +14388,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C128" t="n">
         <v>0.2</v>
@@ -14479,10 +14486,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B129" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C129" t="n">
         <v>0.2</v>
@@ -14577,10 +14584,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C130" t="n">
         <v>0.2</v>
@@ -14675,10 +14682,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B131" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C131" t="n">
         <v>0.2</v>
